--- a/biology/Botanique/Vigne_vierge/Vigne_vierge.xlsx
+++ b/biology/Botanique/Vigne_vierge/Vigne_vierge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigne-vierge est le nom vernaculaire de plantes grimpantes ligneuses à feuillage caduc relevant de la famille des Vitaceae : « vignes » du genre Parthenocissus et celles de l'espèce Ampelopsis brevipedunculata, largement utilisées par l'homme pour l'ornement des façades et la régulation thermique des habitations.
-Le nom de « vigne vierge » ne signifie pas que ces plantes soient stériles. Ce surnom ne provient pas d’une déficience reproductive de la plante mais de son origine. En effet, elle est appelée en anglais « Virginia creeper » où Virginia renvoie à l’État de Virginie mais pas à la Vierge Marie ou à une vierge[1]. 
+Le nom de « vigne vierge » ne signifie pas que ces plantes soient stériles. Ce surnom ne provient pas d’une déficience reproductive de la plante mais de son origine. En effet, elle est appelée en anglais « Virginia creeper » où Virginia renvoie à l’État de Virginie mais pas à la Vierge Marie ou à une vierge. 
 Ses fleurs discrètes attirent très fortement les abeilles au moment de leur floraison en juillet-août. Elles répandent un léger parfum et donnent un abondant nectar.
 La chute des feuilles est brutale et s’effectue assez tôt, dès l'automne, provoquée par la modification du cycle nycthéméral.
-Les vignes vierges, comme toutes les autres vignes, se bouturent (dans l'eau et parfois directement dans la terre) et se marcottent assez facilement[2].
+Les vignes vierges, comme toutes les autres vignes, se bouturent (dans l'eau et parfois directement dans la terre) et se marcottent assez facilement.
 </t>
         </is>
       </c>
@@ -517,13 +529,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parthenocissus
-Vigne-vierge japonaise ou vigne-vierge à trois pointes — Parthenocissus tricuspidata, feuilles pour la plupart simples à 3 lobes pointus (tricuspidata signifie «3 pointes»)
+          <t>Parthenocissus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vigne-vierge japonaise ou vigne-vierge à trois pointes — Parthenocissus tricuspidata, feuilles pour la plupart simples à 3 lobes pointus (tricuspidata signifie «3 pointes»)
 Vigne-vierge de Virginie ou vigne-vierge vraie — Parthenocissus quinquefolia, vrilles avec 5 à 8 divisions, chacune terminée par une ventouse, la vigne vierge la plus résistante au froid,
 Fausse vigne vierge de Virginie — Parthenocissus inserta, vrilles avec 3 à 5 divisions, sans ventouse au bout
-Vigne-vierge de Chine — Parthenocissus henryana
-Ampelopsis
-Vigne vierge à fruits bleus — Ampelopsis brevipedunculata[3]</t>
+Vigne-vierge de Chine — Parthenocissus henryana</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vigne_vierge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vigne_vierge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces concernées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ampelopsis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vigne vierge à fruits bleus — Ampelopsis brevipedunculata</t>
         </is>
       </c>
     </row>
